--- a/biology/Botanique/Titanus_giganteus/Titanus_giganteus.xlsx
+++ b/biology/Botanique/Titanus_giganteus/Titanus_giganteus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Titanus · Titan
 Le Titan (Titanus giganteus) est une espèce d'insectes coléoptères, de la famille des Cérambycidés. C'est la seule espèce connue du genre Titanus.
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Titan est le plus gros représentant de cette famille dans la forêt amazonienne. Il est candidat au titre de plus gros coléoptère du monde avec une taille dépassant les 16 cm (le plus grand Titanus découvert mesurait 16,7 cm). En fait, on peut le considérer comme le plus grand des coléoptères, car il surpasse toutes les autres espèces par la longueur de son corps. Les seules qui lui disputent ce titre, comme le Dynastes hercules, ne l'égalent, voire ne le dépassent de peu, que grâce aux « cornes » dont leur prothorax est pourvu. 
 Les adultes possèdent de solides mandibules et trois épines à chaque côté du prothorax. Ils ne se nourrissent pas. Le stade adulte est consacré à la reproduction. Nocturnes, les mâles sont attirés par la lumière (et donc vulnérables à la pollution lumineuse) alors que les femelles y sont insensibles.
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Titan est un gros coléoptère de couleur noire à rouge doté de grandes antennes noires et de grosses et puissantes mandibules. Son thorax est hérissé de piques. Il possède de longues pattes et de grands yeux.
 			Face dorsale ♂
@@ -579,7 +595,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se rencontre dans les forêts pluviales de Colombie, du Pérou, d'Équateur, de Guyane (Suriname, Guyana et Guyane) et du Brésil.
 </t>
@@ -610,7 +628,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On dénombre en moyenne une femelle pour dix mâles. Les pièges lumineux qui servent à leur capture produisent donc essentiellement des mâles. Leur cycle biologique est mal connu.
 Les mâles se défendent par des sifflements d'alerte et se combattent à l'aide de leurs mandibules et de leurs épines.
@@ -642,18 +662,89 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par le naturaliste suédois Carl von Linné en 1771 sous le nom initial de Cerambyx giganteus. Le genre a été décrit par l'entomologiste français Jean Guillaume Audinet-Serville en 1832.
-Synonymie[1]
-Pour le genre
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par le naturaliste suédois Carl von Linné en 1771 sous le nom initial de Cerambyx giganteus. Le genre a été décrit par l'entomologiste français Jean Guillaume Audinet-Serville en 1832.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Titanus_giganteus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Titanus_giganteus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie[1]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Pour le genre
 Percnopterus (Gistel, 1848)
 Pour l'espèce
 Cerambyx giganteus Linnaeus, 1771 - protonyme
 Percnopterus giganteus (Linnaeus, 1771) par Gistel en 1848
-Prionus giganteus (Linnaeus, 1771) par Fabricius en 1775
-Nom vernaculaire
-Titan</t>
+Prionus giganteus (Linnaeus, 1771) par Fabricius en 1775</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Titanus_giganteus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Titanus_giganteus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Titan</t>
         </is>
       </c>
     </row>
